--- a/Lipidomics/Harv_LIQUID_output_test.xlsx
+++ b/Lipidomics/Harv_LIQUID_output_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle447\Documents\Projects\EMSL_2017\Blanchard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanna\Documents\Blanchard_Lab\R\Soil-omics\Lipidomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A424B66-A57C-42E0-BED1-94DB4B56A3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Org_1_P" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="450">
   <si>
     <t>Raw Data File</t>
   </si>
@@ -1363,20 +1364,23 @@
     <t>WSWNJUNALUVXPR-BKXBVWNCSA-N</t>
   </si>
   <si>
-    <t>Mineral - all</t>
-  </si>
-  <si>
-    <t>Organic - all</t>
-  </si>
-  <si>
-    <t>TG present.  Did not analyze as the goal of these test samples is to determine if there is enough material for real sample.  There are plenty of TGs in these samples.</t>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>row.identity</t>
+  </si>
+  <si>
+    <t>soil_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1507,13 +1511,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1860,10 +1857,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2184,16 +2180,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2818,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -4329,7 +4328,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AB32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB32">
     <sortCondition ref="C2:C32"/>
     <sortCondition ref="L2:L32"/>
   </sortState>
@@ -4338,16 +4337,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C56"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4433,7 +4432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>369</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>369</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>369</v>
       </c>
@@ -4744,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>369</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>369</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>369</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>369</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>369</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>369</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>369</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>369</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>369</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>10371</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>369</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>369</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>369</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>369</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>369</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>369</v>
       </c>
@@ -6059,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>369</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>13155</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>369</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>369</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>9526</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>369</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>369</v>
       </c>
@@ -6447,7 +6446,7 @@
         <v>9123</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>369</v>
       </c>
@@ -6527,7 +6526,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>369</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>369</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>369</v>
       </c>
@@ -6761,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>369</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>9126</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>369</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>369</v>
       </c>
@@ -6980,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>369</v>
       </c>
@@ -7045,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>369</v>
       </c>
@@ -7110,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>369</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>369</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>369</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>9525</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>369</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>369</v>
       </c>
@@ -7498,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>369</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>369</v>
       </c>
@@ -7652,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>369</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>369</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>369</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>369</v>
       </c>
@@ -7963,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>369</v>
       </c>
@@ -8040,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>369</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>369</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>369</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>369</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>369</v>
       </c>
@@ -8428,7 +8427,7 @@
         <v>9133</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>369</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>369</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>369</v>
       </c>
@@ -8660,7 +8659,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AB56">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB56">
     <sortCondition ref="C2:C56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8668,19 +8667,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>142</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>9260</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>9105</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>9252</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>9401</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>142</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -11754,7 +11754,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AB44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB44">
     <sortCondition ref="C2:C44"/>
     <sortCondition ref="L2:L44"/>
   </sortState>
@@ -11763,16 +11763,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C45"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11858,7 +11862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -11935,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -12015,7 +12019,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -12092,7 +12096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -12169,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -12246,7 +12250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -12323,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -12400,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -12477,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -12554,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>200</v>
       </c>
@@ -12631,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -12708,7 +12712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -12785,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -12862,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -12942,7 +12946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -13022,7 +13026,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>200</v>
       </c>
@@ -13099,7 +13103,7 @@
         <v>10371</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -13176,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>200</v>
       </c>
@@ -13253,7 +13257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>200</v>
       </c>
@@ -13330,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -13407,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -13484,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -13561,7 +13565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -13641,7 +13645,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>200</v>
       </c>
@@ -13718,7 +13722,7 @@
         <v>9123</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -13798,7 +13802,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -13875,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -13952,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -14032,7 +14036,7 @@
         <v>9512</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -14109,7 +14113,7 @@
         <v>9126</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -14186,7 +14190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -14251,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -14316,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -14381,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -14458,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -14535,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -14612,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -14689,7 +14693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -14766,7 +14770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -14843,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -15000,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>200</v>
       </c>
@@ -15077,7 +15081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -15154,7 +15158,7 @@
         <v>9133</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>200</v>
       </c>
@@ -15220,7 +15224,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AB86">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB86">
     <sortCondition ref="C2:C86"/>
     <sortCondition ref="L2:L86"/>
   </sortState>
@@ -15229,718 +15233,1920 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>385</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="C32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>279</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="C33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>236</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="C34" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>412</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="C35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>260</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="C36" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>260</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="C37" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>314</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="C38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>284</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="C39" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>416</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="C40" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>300</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="C41" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>323</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="C42" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>336</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="C43" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="C44" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>363</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="C45" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>360</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>257</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="C47" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>264</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="C48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>303</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="C49" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>349</v>
       </c>
       <c r="B50" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="C50" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>435</v>
       </c>
       <c r="B51" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>353</v>
       </c>
       <c r="B52" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="C52" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>443</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="C53" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>345</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="C54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>431</v>
       </c>
       <c r="B55" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="C55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>423</v>
       </c>
       <c r="B56" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="C56" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>332</v>
       </c>
       <c r="B57" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="C57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>318</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C58" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>318</v>
       </c>
       <c r="B59" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C59" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>356</v>
       </c>
       <c r="B60" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="C60" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>356</v>
       </c>
       <c r="B61" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="C61" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>275</v>
       </c>
       <c r="B62" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="C62" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>367</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="C63" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>306</v>
       </c>
       <c r="B64" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="C64" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="C65" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>267</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="C66" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>288</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="C67" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>427</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="C68" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>438</v>
       </c>
       <c r="B69" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="C69" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>222</v>
       </c>
       <c r="B70" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="C70" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>375</v>
       </c>
       <c r="B71" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="C71" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>232</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="C72" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>379</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="C73" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>202</v>
       </c>
       <c r="B74" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="C74" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>240</v>
       </c>
       <c r="B75" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="C75" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>252</v>
       </c>
       <c r="B76" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="C76" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>393</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="C77" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>371</v>
       </c>
       <c r="B78" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="C78" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>382</v>
       </c>
       <c r="B79" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="C79" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>209</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="C80" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>389</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="C81" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>407</v>
       </c>
       <c r="B82" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="C82" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="C83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>397</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="C84" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>419</v>
       </c>
       <c r="B85" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="C85" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>401</v>
       </c>
       <c r="B86" t="s">
+        <v>404</v>
+      </c>
+      <c r="C86" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>165</v>
+      </c>
+      <c r="B100" t="s">
+        <v>166</v>
+      </c>
+      <c r="C100" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" t="s">
+        <v>173</v>
+      </c>
+      <c r="C101" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>159</v>
+      </c>
+      <c r="B104" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>92</v>
+      </c>
+      <c r="B111" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>80</v>
+      </c>
+      <c r="B116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117" t="s">
+        <v>189</v>
+      </c>
+      <c r="C117" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" t="s">
+        <v>150</v>
+      </c>
+      <c r="C119" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>183</v>
+      </c>
+      <c r="B122" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>72</v>
+      </c>
+      <c r="B123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>59</v>
+      </c>
+      <c r="B124" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" t="s">
+        <v>50</v>
+      </c>
+      <c r="C126" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127" t="s">
+        <v>176</v>
+      </c>
+      <c r="C127" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128" t="s">
+        <v>146</v>
+      </c>
+      <c r="C128" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>216</v>
+      </c>
+      <c r="B130" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>279</v>
+      </c>
+      <c r="B131" t="s">
+        <v>280</v>
+      </c>
+      <c r="C131" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" t="s">
+        <v>237</v>
+      </c>
+      <c r="C132" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>236</v>
+      </c>
+      <c r="B133" t="s">
+        <v>237</v>
+      </c>
+      <c r="C133" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>260</v>
+      </c>
+      <c r="B134" t="s">
+        <v>261</v>
+      </c>
+      <c r="C134" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>314</v>
+      </c>
+      <c r="B135" t="s">
+        <v>315</v>
+      </c>
+      <c r="C135" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>284</v>
+      </c>
+      <c r="B136" t="s">
+        <v>285</v>
+      </c>
+      <c r="C136" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>293</v>
+      </c>
+      <c r="B137" t="s">
+        <v>265</v>
+      </c>
+      <c r="C137" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>226</v>
+      </c>
+      <c r="B138" t="s">
+        <v>229</v>
+      </c>
+      <c r="C138" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>244</v>
+      </c>
+      <c r="B139" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>300</v>
+      </c>
+      <c r="B140" t="s">
+        <v>285</v>
+      </c>
+      <c r="C140" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>341</v>
+      </c>
+      <c r="B141" t="s">
+        <v>342</v>
+      </c>
+      <c r="C141" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>323</v>
+      </c>
+      <c r="B142" t="s">
+        <v>324</v>
+      </c>
+      <c r="C142" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>336</v>
+      </c>
+      <c r="B143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C143" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>309</v>
+      </c>
+      <c r="B144" t="s">
+        <v>304</v>
+      </c>
+      <c r="C144" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>363</v>
+      </c>
+      <c r="B145" t="s">
+        <v>364</v>
+      </c>
+      <c r="C145" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>360</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>257</v>
+      </c>
+      <c r="B147" t="s">
+        <v>245</v>
+      </c>
+      <c r="C147" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>264</v>
+      </c>
+      <c r="B148" t="s">
+        <v>265</v>
+      </c>
+      <c r="C148" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>303</v>
+      </c>
+      <c r="B149" t="s">
+        <v>304</v>
+      </c>
+      <c r="C149" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>349</v>
+      </c>
+      <c r="B150" t="s">
+        <v>350</v>
+      </c>
+      <c r="C150" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>353</v>
+      </c>
+      <c r="B151" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>345</v>
+      </c>
+      <c r="B152" t="s">
+        <v>333</v>
+      </c>
+      <c r="C152" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>332</v>
+      </c>
+      <c r="B153" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>318</v>
+      </c>
+      <c r="B154" t="s">
+        <v>319</v>
+      </c>
+      <c r="C154" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>356</v>
+      </c>
+      <c r="B155" t="s">
+        <v>357</v>
+      </c>
+      <c r="C155" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>356</v>
+      </c>
+      <c r="B156" t="s">
+        <v>357</v>
+      </c>
+      <c r="C156" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>327</v>
+      </c>
+      <c r="B157" t="s">
+        <v>328</v>
+      </c>
+      <c r="C157" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>275</v>
+      </c>
+      <c r="B158" t="s">
+        <v>276</v>
+      </c>
+      <c r="C158" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>367</v>
+      </c>
+      <c r="B159" t="s">
+        <v>328</v>
+      </c>
+      <c r="C159" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>306</v>
+      </c>
+      <c r="B160" t="s">
+        <v>307</v>
+      </c>
+      <c r="C160" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>267</v>
+      </c>
+      <c r="B161" t="s">
+        <v>269</v>
+      </c>
+      <c r="C161" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>312</v>
+      </c>
+      <c r="B162" t="s">
+        <v>297</v>
+      </c>
+      <c r="C162" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>271</v>
+      </c>
+      <c r="B163" t="s">
+        <v>272</v>
+      </c>
+      <c r="C163" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>296</v>
+      </c>
+      <c r="B164" t="s">
+        <v>297</v>
+      </c>
+      <c r="C164" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" t="s">
+        <v>290</v>
+      </c>
+      <c r="C165" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>222</v>
+      </c>
+      <c r="B166" t="s">
+        <v>223</v>
+      </c>
+      <c r="C166" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>232</v>
+      </c>
+      <c r="B167" t="s">
+        <v>233</v>
+      </c>
+      <c r="C167" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>202</v>
+      </c>
+      <c r="B168" t="s">
+        <v>206</v>
+      </c>
+      <c r="C168" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>240</v>
+      </c>
+      <c r="B169" t="s">
+        <v>241</v>
+      </c>
+      <c r="C169" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>252</v>
+      </c>
+      <c r="B170" t="s">
+        <v>253</v>
+      </c>
+      <c r="C170" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="B171" t="s">
+        <v>210</v>
+      </c>
+      <c r="C171" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="B172" t="s">
+        <v>249</v>
+      </c>
+      <c r="C172" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>212</v>
+      </c>
+      <c r="B173" t="s">
+        <v>214</v>
+      </c>
+      <c r="C173" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/Lipidomics/Harv_LIQUID_output_test.xlsx
+++ b/Lipidomics/Harv_LIQUID_output_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanna\Documents\Blanchard_Lab\R\Soil-omics\Lipidomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A424B66-A57C-42E0-BED1-94DB4B56A3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB91ED19-AB54-4F33-8846-088D4C8845AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="450">
   <si>
     <t>Raw Data File</t>
   </si>
@@ -2183,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4341,7 +4341,7 @@
   <dimension ref="A1:AB56"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I56"/>
+      <selection activeCell="E2" sqref="E2:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8670,8 +8670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11766,8 +11766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I45"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15234,19 +15234,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>448</v>
       </c>
@@ -15256,8 +15256,17 @@
       <c r="C1" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -15267,8 +15276,17 @@
       <c r="C2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -15278,8 +15296,17 @@
       <c r="C3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -15289,8 +15316,17 @@
       <c r="C4" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -15300,8 +15336,17 @@
       <c r="C5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -15311,8 +15356,17 @@
       <c r="C6" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -15322,8 +15376,17 @@
       <c r="C7" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -15333,8 +15396,17 @@
       <c r="C8" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -15344,8 +15416,14 @@
       <c r="C9" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -15355,8 +15433,14 @@
       <c r="C10" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -15366,8 +15450,14 @@
       <c r="C11" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -15377,8 +15467,14 @@
       <c r="C12" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -15388,8 +15484,14 @@
       <c r="C13" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -15399,8 +15501,14 @@
       <c r="C14" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -15410,8 +15518,14 @@
       <c r="C15" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -15421,8 +15535,14 @@
       <c r="C16" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -15432,8 +15552,14 @@
       <c r="C17" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -15443,8 +15569,14 @@
       <c r="C18" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -15454,8 +15586,14 @@
       <c r="C19" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -15465,8 +15603,14 @@
       <c r="C20" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -15476,8 +15620,14 @@
       <c r="C21" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -15487,8 +15637,14 @@
       <c r="C22" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -15498,8 +15654,14 @@
       <c r="C23" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -15509,8 +15671,17 @@
       <c r="C24" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -15520,8 +15691,17 @@
       <c r="C25" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -15531,8 +15711,17 @@
       <c r="C26" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -15542,8 +15731,17 @@
       <c r="C27" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -15553,8 +15751,17 @@
       <c r="C28" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -15564,8 +15771,17 @@
       <c r="C29" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -15575,8 +15791,17 @@
       <c r="C30" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -15586,8 +15811,17 @@
       <c r="C31" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>385</v>
       </c>
@@ -15597,8 +15831,17 @@
       <c r="C32" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>279</v>
       </c>
@@ -15608,8 +15851,17 @@
       <c r="C33" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>236</v>
       </c>
@@ -15619,8 +15871,17 @@
       <c r="C34" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>412</v>
       </c>
@@ -15630,8 +15891,17 @@
       <c r="C35" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>260</v>
       </c>
@@ -15641,8 +15911,17 @@
       <c r="C36" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>260</v>
       </c>
@@ -15652,8 +15931,17 @@
       <c r="C37" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>314</v>
       </c>
@@ -15663,8 +15951,17 @@
       <c r="C38" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>284</v>
       </c>
@@ -15674,8 +15971,17 @@
       <c r="C39" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>416</v>
       </c>
@@ -15685,8 +15991,17 @@
       <c r="C40" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>300</v>
       </c>
@@ -15696,8 +16011,17 @@
       <c r="C41" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>323</v>
       </c>
@@ -15707,8 +16031,17 @@
       <c r="C42" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>336</v>
       </c>
@@ -15718,8 +16051,17 @@
       <c r="C43" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>309</v>
       </c>
@@ -15729,8 +16071,17 @@
       <c r="C44" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>363</v>
       </c>
@@ -15740,8 +16091,17 @@
       <c r="C45" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>360</v>
       </c>
@@ -15751,8 +16111,17 @@
       <c r="C46" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>257</v>
       </c>
@@ -15762,8 +16131,17 @@
       <c r="C47" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>264</v>
       </c>
@@ -15773,8 +16151,17 @@
       <c r="C48" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>303</v>
       </c>
@@ -15784,8 +16171,17 @@
       <c r="C49" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>349</v>
       </c>
@@ -15795,8 +16191,17 @@
       <c r="C50" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>435</v>
       </c>
@@ -15806,8 +16211,17 @@
       <c r="C51" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>353</v>
       </c>
@@ -15817,8 +16231,17 @@
       <c r="C52" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>443</v>
       </c>
@@ -15828,8 +16251,17 @@
       <c r="C53" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>345</v>
       </c>
@@ -15839,8 +16271,17 @@
       <c r="C54" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" t="s">
+        <v>227</v>
+      </c>
+      <c r="F54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>431</v>
       </c>
@@ -15850,8 +16291,17 @@
       <c r="C55" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>423</v>
       </c>
@@ -15861,8 +16311,17 @@
       <c r="C56" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>227</v>
+      </c>
+      <c r="F56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>332</v>
       </c>
@@ -15872,8 +16331,17 @@
       <c r="C57" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>318</v>
       </c>
@@ -15883,8 +16351,17 @@
       <c r="C58" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>318</v>
       </c>
@@ -15894,8 +16371,17 @@
       <c r="C59" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>227</v>
+      </c>
+      <c r="F59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>356</v>
       </c>
@@ -15905,8 +16391,17 @@
       <c r="C60" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>227</v>
+      </c>
+      <c r="F60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>356</v>
       </c>
@@ -15916,8 +16411,17 @@
       <c r="C61" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>275</v>
       </c>
@@ -15927,8 +16431,17 @@
       <c r="C62" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
+        <v>227</v>
+      </c>
+      <c r="F62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>367</v>
       </c>
@@ -15938,8 +16451,17 @@
       <c r="C63" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" t="s">
+        <v>227</v>
+      </c>
+      <c r="F63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>306</v>
       </c>
@@ -15949,8 +16471,17 @@
       <c r="C64" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>267</v>
       </c>
@@ -15960,8 +16491,17 @@
       <c r="C65" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" t="s">
+        <v>227</v>
+      </c>
+      <c r="F65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>267</v>
       </c>
@@ -15971,8 +16511,17 @@
       <c r="C66" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="s">
+        <v>227</v>
+      </c>
+      <c r="F66" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>288</v>
       </c>
@@ -15982,8 +16531,17 @@
       <c r="C67" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" t="s">
+        <v>227</v>
+      </c>
+      <c r="F67" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>427</v>
       </c>
@@ -15993,8 +16551,17 @@
       <c r="C68" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>438</v>
       </c>
@@ -16004,8 +16571,17 @@
       <c r="C69" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" t="s">
+        <v>227</v>
+      </c>
+      <c r="F69" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>222</v>
       </c>
@@ -16015,8 +16591,17 @@
       <c r="C70" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -16026,8 +16611,17 @@
       <c r="C71" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>232</v>
       </c>
@@ -16037,8 +16631,17 @@
       <c r="C72" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>379</v>
       </c>
@@ -16048,8 +16651,17 @@
       <c r="C73" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" t="s">
+        <v>204</v>
+      </c>
+      <c r="F73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -16059,8 +16671,17 @@
       <c r="C74" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>240</v>
       </c>
@@ -16070,8 +16691,17 @@
       <c r="C75" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" t="s">
+        <v>204</v>
+      </c>
+      <c r="F75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>252</v>
       </c>
@@ -16081,8 +16711,17 @@
       <c r="C76" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>393</v>
       </c>
@@ -16092,8 +16731,17 @@
       <c r="C77" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>371</v>
       </c>
@@ -16103,8 +16751,17 @@
       <c r="C78" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" t="s">
+        <v>204</v>
+      </c>
+      <c r="F78" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>382</v>
       </c>
@@ -16114,8 +16771,17 @@
       <c r="C79" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" t="s">
+        <v>204</v>
+      </c>
+      <c r="F79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>209</v>
       </c>
@@ -16125,8 +16791,17 @@
       <c r="C80" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>389</v>
       </c>
@@ -16136,8 +16811,17 @@
       <c r="C81" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s">
+        <v>204</v>
+      </c>
+      <c r="F81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>407</v>
       </c>
@@ -16147,8 +16831,17 @@
       <c r="C82" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>248</v>
       </c>
@@ -16158,8 +16851,17 @@
       <c r="C83" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" t="s">
+        <v>204</v>
+      </c>
+      <c r="F83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>397</v>
       </c>
@@ -16169,8 +16871,17 @@
       <c r="C84" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" t="s">
+        <v>204</v>
+      </c>
+      <c r="F84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>419</v>
       </c>
@@ -16180,8 +16891,17 @@
       <c r="C85" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" t="s">
+        <v>204</v>
+      </c>
+      <c r="F85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>401</v>
       </c>
@@ -16191,8 +16911,17 @@
       <c r="C86" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" t="s">
+        <v>402</v>
+      </c>
+      <c r="F86" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>196</v>
       </c>
@@ -16202,8 +16931,17 @@
       <c r="C87" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>191</v>
       </c>
@@ -16213,8 +16951,17 @@
       <c r="C88" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" t="s">
+        <v>130</v>
+      </c>
+      <c r="F88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>128</v>
       </c>
@@ -16224,8 +16971,17 @@
       <c r="C89" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" t="s">
+        <v>130</v>
+      </c>
+      <c r="F89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -16235,8 +16991,17 @@
       <c r="C90" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -16246,8 +17011,17 @@
       <c r="C91" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>124</v>
       </c>
@@ -16257,8 +17031,17 @@
       <c r="C92" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" t="s">
+        <v>85</v>
+      </c>
+      <c r="F92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -16268,8 +17051,17 @@
       <c r="C93" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" t="s">
+        <v>85</v>
+      </c>
+      <c r="F93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -16279,8 +17071,17 @@
       <c r="C94" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" t="s">
+        <v>85</v>
+      </c>
+      <c r="F94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>138</v>
       </c>
@@ -16290,8 +17091,17 @@
       <c r="C95" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" t="s">
+        <v>85</v>
+      </c>
+      <c r="F95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>152</v>
       </c>
@@ -16301,8 +17111,17 @@
       <c r="C96" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" t="s">
+        <v>95</v>
+      </c>
+      <c r="F96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>157</v>
       </c>
@@ -16312,8 +17131,17 @@
       <c r="C97" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" t="s">
+        <v>95</v>
+      </c>
+      <c r="F97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -16323,8 +17151,17 @@
       <c r="C98" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" t="s">
+        <v>95</v>
+      </c>
+      <c r="F98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>155</v>
       </c>
@@ -16334,8 +17171,17 @@
       <c r="C99" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" t="s">
+        <v>95</v>
+      </c>
+      <c r="F99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>165</v>
       </c>
@@ -16345,8 +17191,17 @@
       <c r="C100" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" t="s">
+        <v>95</v>
+      </c>
+      <c r="F100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>172</v>
       </c>
@@ -16356,8 +17211,17 @@
       <c r="C101" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" t="s">
+        <v>95</v>
+      </c>
+      <c r="F101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>94</v>
       </c>
@@ -16367,8 +17231,17 @@
       <c r="C102" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" t="s">
+        <v>95</v>
+      </c>
+      <c r="F102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>154</v>
       </c>
@@ -16378,8 +17251,14 @@
       <c r="C103" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>159</v>
       </c>
@@ -16389,8 +17268,14 @@
       <c r="C104" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -16400,8 +17285,14 @@
       <c r="C105" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>62</v>
       </c>
@@ -16411,8 +17302,14 @@
       <c r="C106" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>64</v>
       </c>
@@ -16422,8 +17319,14 @@
       <c r="C107" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -16433,8 +17336,14 @@
       <c r="C108" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>187</v>
       </c>
@@ -16444,8 +17353,14 @@
       <c r="C109" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>46</v>
       </c>
@@ -16455,8 +17370,14 @@
       <c r="C110" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>92</v>
       </c>
@@ -16466,8 +17387,14 @@
       <c r="C111" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>90</v>
       </c>
@@ -16477,8 +17404,14 @@
       <c r="C112" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -16488,8 +17421,14 @@
       <c r="C113" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -16499,8 +17438,14 @@
       <c r="C114" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>89</v>
       </c>
@@ -16510,8 +17455,14 @@
       <c r="C115" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>80</v>
       </c>
@@ -16521,8 +17472,14 @@
       <c r="C116" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>188</v>
       </c>
@@ -16532,8 +17489,14 @@
       <c r="C117" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>168</v>
       </c>
@@ -16543,8 +17506,17 @@
       <c r="C118" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -16554,8 +17526,17 @@
       <c r="C119" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F119" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>162</v>
       </c>
@@ -16565,8 +17546,17 @@
       <c r="C120" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>76</v>
       </c>
@@ -16576,8 +17566,17 @@
       <c r="C121" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>183</v>
       </c>
@@ -16587,8 +17586,17 @@
       <c r="C122" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" t="s">
+        <v>37</v>
+      </c>
+      <c r="F122" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -16598,8 +17606,17 @@
       <c r="C123" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" t="s">
+        <v>37</v>
+      </c>
+      <c r="F123" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -16609,8 +17626,17 @@
       <c r="C124" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>179</v>
       </c>
@@ -16620,8 +17646,17 @@
       <c r="C125" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>49</v>
       </c>
@@ -16631,8 +17666,17 @@
       <c r="C126" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>175</v>
       </c>
@@ -16642,8 +17686,17 @@
       <c r="C127" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -16653,8 +17706,17 @@
       <c r="C128" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>109</v>
       </c>
@@ -16664,8 +17726,17 @@
       <c r="C129" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F129" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>216</v>
       </c>
@@ -16675,8 +17746,17 @@
       <c r="C130" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" t="s">
+        <v>217</v>
+      </c>
+      <c r="F130" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>279</v>
       </c>
@@ -16686,8 +17766,17 @@
       <c r="C131" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" t="s">
+        <v>227</v>
+      </c>
+      <c r="F131" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>236</v>
       </c>
@@ -16697,8 +17786,17 @@
       <c r="C132" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" t="s">
+        <v>227</v>
+      </c>
+      <c r="F132" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>236</v>
       </c>
@@ -16708,8 +17806,17 @@
       <c r="C133" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" t="s">
+        <v>227</v>
+      </c>
+      <c r="F133" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>260</v>
       </c>
@@ -16719,8 +17826,17 @@
       <c r="C134" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" t="s">
+        <v>227</v>
+      </c>
+      <c r="F134" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>314</v>
       </c>
@@ -16730,8 +17846,17 @@
       <c r="C135" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" t="s">
+        <v>227</v>
+      </c>
+      <c r="F135" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>284</v>
       </c>
@@ -16741,8 +17866,17 @@
       <c r="C136" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" t="s">
+        <v>227</v>
+      </c>
+      <c r="F136" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>293</v>
       </c>
@@ -16752,8 +17886,17 @@
       <c r="C137" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" t="s">
+        <v>227</v>
+      </c>
+      <c r="F137" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>226</v>
       </c>
@@ -16763,8 +17906,17 @@
       <c r="C138" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" t="s">
+        <v>227</v>
+      </c>
+      <c r="F138" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>244</v>
       </c>
@@ -16774,8 +17926,17 @@
       <c r="C139" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" t="s">
+        <v>227</v>
+      </c>
+      <c r="F139" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>300</v>
       </c>
@@ -16785,8 +17946,17 @@
       <c r="C140" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>36</v>
+      </c>
+      <c r="E140" t="s">
+        <v>227</v>
+      </c>
+      <c r="F140" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>341</v>
       </c>
@@ -16796,8 +17966,17 @@
       <c r="C141" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" t="s">
+        <v>227</v>
+      </c>
+      <c r="F141" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>323</v>
       </c>
@@ -16807,8 +17986,17 @@
       <c r="C142" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142" t="s">
+        <v>227</v>
+      </c>
+      <c r="F142" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>336</v>
       </c>
@@ -16818,8 +18006,17 @@
       <c r="C143" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" t="s">
+        <v>227</v>
+      </c>
+      <c r="F143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>309</v>
       </c>
@@ -16829,8 +18026,17 @@
       <c r="C144" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" t="s">
+        <v>227</v>
+      </c>
+      <c r="F144" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>363</v>
       </c>
@@ -16840,8 +18046,17 @@
       <c r="C145" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" t="s">
+        <v>227</v>
+      </c>
+      <c r="F145" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>360</v>
       </c>
@@ -16851,8 +18066,17 @@
       <c r="C146" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" t="s">
+        <v>227</v>
+      </c>
+      <c r="F146" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>257</v>
       </c>
@@ -16862,8 +18086,17 @@
       <c r="C147" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" t="s">
+        <v>227</v>
+      </c>
+      <c r="F147" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>264</v>
       </c>
@@ -16873,8 +18106,17 @@
       <c r="C148" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" t="s">
+        <v>227</v>
+      </c>
+      <c r="F148" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>303</v>
       </c>
@@ -16884,8 +18126,17 @@
       <c r="C149" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" t="s">
+        <v>227</v>
+      </c>
+      <c r="F149" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>349</v>
       </c>
@@ -16895,8 +18146,17 @@
       <c r="C150" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150" t="s">
+        <v>227</v>
+      </c>
+      <c r="F150" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>353</v>
       </c>
@@ -16906,8 +18166,17 @@
       <c r="C151" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" t="s">
+        <v>227</v>
+      </c>
+      <c r="F151" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>345</v>
       </c>
@@ -16917,8 +18186,17 @@
       <c r="C152" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>36</v>
+      </c>
+      <c r="E152" t="s">
+        <v>227</v>
+      </c>
+      <c r="F152" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>332</v>
       </c>
@@ -16928,8 +18206,17 @@
       <c r="C153" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153" t="s">
+        <v>227</v>
+      </c>
+      <c r="F153" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>318</v>
       </c>
@@ -16939,8 +18226,17 @@
       <c r="C154" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>36</v>
+      </c>
+      <c r="E154" t="s">
+        <v>227</v>
+      </c>
+      <c r="F154" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>356</v>
       </c>
@@ -16950,8 +18246,17 @@
       <c r="C155" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" t="s">
+        <v>227</v>
+      </c>
+      <c r="F155" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>356</v>
       </c>
@@ -16961,8 +18266,17 @@
       <c r="C156" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" t="s">
+        <v>227</v>
+      </c>
+      <c r="F156" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>327</v>
       </c>
@@ -16972,8 +18286,17 @@
       <c r="C157" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" t="s">
+        <v>227</v>
+      </c>
+      <c r="F157" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>275</v>
       </c>
@@ -16983,8 +18306,17 @@
       <c r="C158" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>36</v>
+      </c>
+      <c r="E158" t="s">
+        <v>227</v>
+      </c>
+      <c r="F158" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>367</v>
       </c>
@@ -16994,8 +18326,17 @@
       <c r="C159" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>36</v>
+      </c>
+      <c r="E159" t="s">
+        <v>227</v>
+      </c>
+      <c r="F159" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>306</v>
       </c>
@@ -17005,8 +18346,17 @@
       <c r="C160" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" t="s">
+        <v>227</v>
+      </c>
+      <c r="F160" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>267</v>
       </c>
@@ -17016,8 +18366,17 @@
       <c r="C161" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>36</v>
+      </c>
+      <c r="E161" t="s">
+        <v>227</v>
+      </c>
+      <c r="F161" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>312</v>
       </c>
@@ -17027,8 +18386,17 @@
       <c r="C162" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" t="s">
+        <v>227</v>
+      </c>
+      <c r="F162" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>271</v>
       </c>
@@ -17038,8 +18406,17 @@
       <c r="C163" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163" t="s">
+        <v>227</v>
+      </c>
+      <c r="F163" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>296</v>
       </c>
@@ -17049,8 +18426,17 @@
       <c r="C164" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" t="s">
+        <v>227</v>
+      </c>
+      <c r="F164" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>288</v>
       </c>
@@ -17060,8 +18446,17 @@
       <c r="C165" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>36</v>
+      </c>
+      <c r="E165" t="s">
+        <v>227</v>
+      </c>
+      <c r="F165" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>222</v>
       </c>
@@ -17071,8 +18466,17 @@
       <c r="C166" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" t="s">
+        <v>204</v>
+      </c>
+      <c r="F166" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>232</v>
       </c>
@@ -17082,8 +18486,17 @@
       <c r="C167" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" t="s">
+        <v>204</v>
+      </c>
+      <c r="F167" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>202</v>
       </c>
@@ -17093,8 +18506,17 @@
       <c r="C168" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>36</v>
+      </c>
+      <c r="E168" t="s">
+        <v>204</v>
+      </c>
+      <c r="F168" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>240</v>
       </c>
@@ -17104,8 +18526,17 @@
       <c r="C169" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" t="s">
+        <v>36</v>
+      </c>
+      <c r="E169" t="s">
+        <v>204</v>
+      </c>
+      <c r="F169" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>252</v>
       </c>
@@ -17115,8 +18546,17 @@
       <c r="C170" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" t="s">
+        <v>204</v>
+      </c>
+      <c r="F170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>209</v>
       </c>
@@ -17126,8 +18566,17 @@
       <c r="C171" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171" t="s">
+        <v>204</v>
+      </c>
+      <c r="F171" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>248</v>
       </c>
@@ -17137,8 +18586,17 @@
       <c r="C172" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
+        <v>36</v>
+      </c>
+      <c r="E172" t="s">
+        <v>204</v>
+      </c>
+      <c r="F172" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>212</v>
       </c>
@@ -17147,6 +18605,15 @@
       </c>
       <c r="C173" t="s">
         <v>446</v>
+      </c>
+      <c r="D173" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" t="s">
+        <v>204</v>
+      </c>
+      <c r="F173" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
